--- a/experimental_results/majority_NW_latex.xlsx
+++ b/experimental_results/majority_NW_latex.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\Documents\Uni\Master\Masterarbeit\tum-thesis-latex\experimental_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F771BFC2-1661-4C15-914E-EC60E657014E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6B319E-EDE9-4F36-8E19-3ABA1F971EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9DBFB358-8B9E-49E9-956B-A52546E4BC79}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Benchmark</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>|WC|</t>
+  </si>
+  <si>
+    <t>|G|</t>
   </si>
 </sst>
 </file>
@@ -304,7 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -319,6 +322,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -326,12 +337,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -343,8 +348,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -652,7 +657,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -660,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9D0388-498E-426F-B370-6DD72B0859CD}">
-  <dimension ref="B1:W25"/>
+  <dimension ref="B1:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="B1" sqref="B1:Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,55 +676,57 @@
     <col min="1" max="1" width="11.44140625" style="1"/>
     <col min="2" max="2" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.44140625" style="1"/>
+    <col min="4" max="4" width="5.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="14" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="17" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="18"/>
-      <c r="Q1"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="17"/>
       <c r="R1"/>
       <c r="S1"/>
       <c r="T1"/>
       <c r="U1"/>
       <c r="V1"/>
       <c r="W1"/>
-    </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="X1"/>
+    </row>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
@@ -727,759 +734,795 @@
         <v>3</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>19</v>
-      </c>
       <c r="L2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="O2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="P2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="Q2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="X2"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="24">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9">
         <v>5</v>
       </c>
-      <c r="E3" s="9">
+      <c r="F3" s="9">
         <v>84</v>
       </c>
-      <c r="F3" s="9">
+      <c r="G3" s="9">
         <v>29</v>
       </c>
-      <c r="G3" s="9">
+      <c r="H3" s="9">
         <v>64</v>
       </c>
-      <c r="H3" s="9">
+      <c r="I3" s="9">
         <v>92</v>
       </c>
-      <c r="I3" s="9">
+      <c r="J3" s="9">
         <v>709</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="9">
+      <c r="L3" s="9">
         <v>26</v>
       </c>
-      <c r="L3" s="9">
+      <c r="M3" s="9">
         <v>107</v>
       </c>
-      <c r="M3" s="9">
+      <c r="N3" s="9">
         <v>73</v>
       </c>
-      <c r="N3" s="9">
+      <c r="O3" s="9">
         <v>70</v>
       </c>
-      <c r="O3" s="9">
+      <c r="P3" s="9">
         <v>1440</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
-      <c r="U3"/>
+      <c r="U3" s="2"/>
       <c r="V3"/>
       <c r="W3"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="X3"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="24">
+        <v>10</v>
+      </c>
+      <c r="E4" s="9">
         <v>7</v>
       </c>
-      <c r="E4" s="9">
+      <c r="F4" s="9">
         <v>90</v>
       </c>
-      <c r="F4" s="9">
+      <c r="G4" s="9">
         <v>30</v>
       </c>
-      <c r="G4" s="9">
+      <c r="H4" s="9">
         <v>72</v>
       </c>
-      <c r="H4" s="9">
+      <c r="I4" s="9">
         <v>92</v>
       </c>
-      <c r="I4" s="9">
+      <c r="J4" s="9">
         <v>731</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="9">
+      <c r="L4" s="9">
         <v>28</v>
       </c>
-      <c r="L4" s="9">
+      <c r="M4" s="9">
         <v>176</v>
       </c>
-      <c r="M4" s="9">
+      <c r="N4" s="9">
         <v>87</v>
       </c>
-      <c r="N4" s="9">
+      <c r="O4" s="9">
         <v>78</v>
       </c>
-      <c r="O4" s="9">
+      <c r="P4" s="9">
         <v>2377</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-      <c r="U4"/>
+      <c r="U4" s="2"/>
       <c r="V4"/>
       <c r="W4"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="X4"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="24">
+        <v>40</v>
+      </c>
+      <c r="E5" s="9">
         <v>30</v>
       </c>
-      <c r="E5" s="9">
+      <c r="F5" s="9">
         <v>432</v>
       </c>
-      <c r="F5" s="9">
+      <c r="G5" s="9">
         <v>138</v>
       </c>
-      <c r="G5" s="9">
+      <c r="H5" s="9">
         <v>318</v>
       </c>
-      <c r="H5" s="9">
+      <c r="I5" s="9">
         <v>1205</v>
       </c>
-      <c r="I5" s="9">
+      <c r="J5" s="9">
         <v>11838</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="9">
+      <c r="L5" s="9">
         <v>132</v>
       </c>
-      <c r="L5" s="9">
+      <c r="M5" s="9">
         <v>904</v>
       </c>
-      <c r="M5" s="9">
+      <c r="N5" s="9">
         <v>385</v>
       </c>
-      <c r="N5" s="9">
+      <c r="O5" s="9">
         <v>831</v>
       </c>
-      <c r="O5" s="9">
+      <c r="P5" s="9">
         <v>34158</v>
       </c>
-      <c r="P5" s="11">
+      <c r="Q5" s="11">
         <v>1.4351499999999999</v>
       </c>
-      <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5"/>
+      <c r="U5" s="2"/>
       <c r="V5"/>
       <c r="W5"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="X5"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="24">
+        <v>100</v>
+      </c>
+      <c r="E6" s="9">
         <v>93</v>
       </c>
-      <c r="E6" s="9">
+      <c r="F6" s="9">
         <v>1321</v>
       </c>
-      <c r="F6" s="9">
+      <c r="G6" s="9">
         <v>390</v>
       </c>
-      <c r="G6" s="9">
+      <c r="H6" s="9">
         <v>980</v>
       </c>
-      <c r="H6" s="9">
+      <c r="I6" s="9">
         <v>8479</v>
       </c>
-      <c r="I6" s="9">
+      <c r="J6" s="9">
         <v>100222</v>
       </c>
-      <c r="J6" s="11">
+      <c r="K6" s="11">
         <v>2.4240400000000002</v>
       </c>
-      <c r="K6" s="9">
+      <c r="L6" s="9">
         <v>350</v>
       </c>
-      <c r="L6" s="9">
+      <c r="M6" s="9">
         <v>3722</v>
       </c>
-      <c r="M6" s="9">
+      <c r="N6" s="9">
         <v>1000</v>
       </c>
-      <c r="N6" s="9">
+      <c r="O6" s="9">
         <v>4813</v>
       </c>
-      <c r="O6" s="9">
+      <c r="P6" s="9">
         <v>355351</v>
       </c>
-      <c r="P6" s="11">
+      <c r="Q6" s="11">
         <v>12.911199999999999</v>
       </c>
-      <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6"/>
+      <c r="U6" s="2"/>
       <c r="V6"/>
       <c r="W6"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="X6"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="24">
+        <v>200</v>
+      </c>
+      <c r="E7" s="9">
         <v>190</v>
       </c>
-      <c r="E7" s="9">
+      <c r="F7" s="9">
         <v>2668</v>
       </c>
-      <c r="F7" s="9">
+      <c r="G7" s="9">
         <v>765</v>
       </c>
-      <c r="G7" s="9">
+      <c r="H7" s="9">
         <v>1975</v>
       </c>
-      <c r="H7" s="9">
+      <c r="I7" s="9">
         <v>31667</v>
       </c>
-      <c r="I7" s="9">
+      <c r="J7" s="9">
         <v>371272</v>
       </c>
-      <c r="J7" s="11">
+      <c r="K7" s="11">
         <v>14.680999999999999</v>
       </c>
-      <c r="K7" s="9">
+      <c r="L7" s="9">
         <v>712</v>
       </c>
-      <c r="L7" s="9">
+      <c r="M7" s="9">
         <v>8112</v>
       </c>
-      <c r="M7" s="9">
+      <c r="N7" s="9">
         <v>1978</v>
       </c>
-      <c r="N7" s="9">
+      <c r="O7" s="9">
         <v>16555</v>
       </c>
-      <c r="O7" s="9">
+      <c r="P7" s="9">
         <v>1431295</v>
       </c>
-      <c r="P7" s="11">
+      <c r="Q7" s="11">
         <v>96.201700000000002</v>
       </c>
-      <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7"/>
+      <c r="U7" s="2"/>
       <c r="V7"/>
       <c r="W7"/>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="X7"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="24">
+        <v>90</v>
+      </c>
+      <c r="E8" s="9">
         <v>85</v>
       </c>
-      <c r="E8" s="9">
+      <c r="F8" s="9">
         <v>1204</v>
       </c>
-      <c r="F8" s="9">
+      <c r="G8" s="9">
         <v>361</v>
       </c>
-      <c r="G8" s="9">
+      <c r="H8" s="9">
         <v>890</v>
       </c>
-      <c r="H8" s="9">
+      <c r="I8" s="9">
         <v>6803</v>
       </c>
-      <c r="I8" s="9">
+      <c r="J8" s="9">
         <v>79105</v>
       </c>
-      <c r="J8" s="11">
+      <c r="K8" s="11">
         <v>2.0081799999999999</v>
       </c>
-      <c r="K8" s="9">
+      <c r="L8" s="9">
         <v>310</v>
       </c>
-      <c r="L8" s="9">
+      <c r="M8" s="9">
         <v>2744</v>
       </c>
-      <c r="M8" s="9">
+      <c r="N8" s="9">
         <v>902</v>
       </c>
-      <c r="N8" s="9">
+      <c r="O8" s="9">
         <v>3915</v>
       </c>
-      <c r="O8" s="9">
+      <c r="P8" s="9">
         <v>235040</v>
       </c>
-      <c r="P8" s="11">
+      <c r="Q8" s="11">
         <v>9.7103300000000008</v>
       </c>
-      <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="U8"/>
+      <c r="U8" s="2"/>
       <c r="V8"/>
       <c r="W8"/>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="X8"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="24">
+        <v>277</v>
+      </c>
+      <c r="E9" s="9">
         <v>267</v>
       </c>
-      <c r="E9" s="9">
+      <c r="F9" s="9">
         <v>3799</v>
       </c>
-      <c r="F9" s="9">
+      <c r="G9" s="9">
         <v>1106</v>
       </c>
-      <c r="G9" s="9">
+      <c r="H9" s="9">
         <v>2811</v>
       </c>
-      <c r="H9" s="9">
+      <c r="I9" s="9">
         <v>63270</v>
       </c>
-      <c r="I9" s="9">
+      <c r="J9" s="9">
         <v>744287</v>
       </c>
-      <c r="J9" s="11">
+      <c r="K9" s="11">
         <v>22.7239</v>
       </c>
-      <c r="K9" s="9">
+      <c r="L9" s="9">
         <v>971</v>
       </c>
-      <c r="L9" s="9">
+      <c r="M9" s="9">
         <v>11421</v>
       </c>
-      <c r="M9" s="9">
+      <c r="N9" s="9">
         <v>2801</v>
       </c>
-      <c r="N9" s="9">
+      <c r="O9" s="9">
         <v>32302</v>
       </c>
-      <c r="O9" s="9">
+      <c r="P9" s="9">
         <v>2791464</v>
       </c>
-      <c r="P9" s="11">
+      <c r="Q9" s="11">
         <v>111.134</v>
       </c>
-      <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9"/>
+      <c r="U9" s="2"/>
       <c r="V9"/>
       <c r="W9"/>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="X9"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="24">
+        <v>340</v>
+      </c>
+      <c r="E10" s="9">
         <v>324</v>
       </c>
-      <c r="E10" s="9">
+      <c r="F10" s="9">
         <v>4638</v>
       </c>
-      <c r="F10" s="9">
+      <c r="G10" s="9">
         <v>1321</v>
       </c>
-      <c r="G10" s="9">
+      <c r="H10" s="9">
         <v>3436</v>
       </c>
-      <c r="H10" s="9">
+      <c r="I10" s="9">
         <v>86195</v>
       </c>
-      <c r="I10" s="9">
+      <c r="J10" s="9">
         <v>1050366</v>
       </c>
-      <c r="J10" s="11">
+      <c r="K10" s="11">
         <v>29.238299999999999</v>
       </c>
-      <c r="K10" s="9">
+      <c r="L10" s="9">
         <v>1189</v>
       </c>
-      <c r="L10" s="9">
+      <c r="M10" s="9">
         <v>13714</v>
       </c>
-      <c r="M10" s="9">
+      <c r="N10" s="9">
         <v>3349</v>
       </c>
-      <c r="N10" s="9">
+      <c r="O10" s="9">
         <v>41489</v>
       </c>
-      <c r="O10" s="9">
+      <c r="P10" s="9">
         <v>3943616</v>
       </c>
-      <c r="P10" s="11">
+      <c r="Q10" s="11">
         <v>194.61699999999999</v>
       </c>
-      <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10"/>
+      <c r="U10" s="2"/>
       <c r="V10"/>
       <c r="W10"/>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="X10"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="24">
+        <v>72</v>
+      </c>
+      <c r="E11" s="9">
         <v>61</v>
       </c>
-      <c r="E11" s="9">
+      <c r="F11" s="9">
         <v>864</v>
       </c>
-      <c r="F11" s="9">
+      <c r="G11" s="9">
         <v>253</v>
       </c>
-      <c r="G11" s="9">
+      <c r="H11" s="9">
         <v>643</v>
       </c>
-      <c r="H11" s="9">
+      <c r="I11" s="9">
         <v>3907</v>
       </c>
-      <c r="I11" s="9">
+      <c r="J11" s="9">
         <v>40424</v>
       </c>
-      <c r="J11" s="11">
+      <c r="K11" s="11">
         <v>1.11582</v>
       </c>
-      <c r="K11" s="9">
+      <c r="L11" s="9">
         <v>245</v>
       </c>
-      <c r="L11" s="9">
+      <c r="M11" s="9">
         <v>1815</v>
       </c>
-      <c r="M11" s="9">
+      <c r="N11" s="9">
         <v>665</v>
       </c>
-      <c r="N11" s="9">
+      <c r="O11" s="9">
         <v>2280</v>
       </c>
-      <c r="O11" s="9">
+      <c r="P11" s="9">
         <v>120456</v>
       </c>
-      <c r="P11" s="11">
+      <c r="Q11" s="11">
         <v>6.8233800000000002</v>
       </c>
-      <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-      <c r="U11"/>
+      <c r="U11" s="2"/>
       <c r="V11"/>
       <c r="W11"/>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="X11"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="24">
+        <v>88</v>
+      </c>
+      <c r="E12" s="9">
         <v>83</v>
       </c>
-      <c r="E12" s="9">
+      <c r="F12" s="9">
         <v>1149</v>
       </c>
-      <c r="F12" s="9">
+      <c r="G12" s="9">
         <v>333</v>
       </c>
-      <c r="G12" s="9">
+      <c r="H12" s="9">
         <v>855</v>
       </c>
-      <c r="H12" s="9">
+      <c r="I12" s="9">
         <v>6861</v>
       </c>
-      <c r="I12" s="9">
+      <c r="J12" s="9">
         <v>74636</v>
       </c>
-      <c r="J12" s="11">
+      <c r="K12" s="11">
         <v>1.8916500000000001</v>
       </c>
-      <c r="K12" s="9">
+      <c r="L12" s="9">
         <v>306</v>
       </c>
-      <c r="L12" s="9">
+      <c r="M12" s="9">
         <v>2706</v>
       </c>
-      <c r="M12" s="9">
+      <c r="N12" s="9">
         <v>854</v>
       </c>
-      <c r="N12" s="9">
+      <c r="O12" s="9">
         <v>3623</v>
       </c>
-      <c r="O12" s="9">
+      <c r="P12" s="9">
         <v>235136</v>
       </c>
-      <c r="P12" s="11">
+      <c r="Q12" s="11">
         <v>9.7395399999999999</v>
       </c>
-      <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-      <c r="U12"/>
+      <c r="U12" s="2"/>
       <c r="V12"/>
       <c r="W12"/>
-    </row>
-    <row r="13" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X12"/>
+    </row>
+    <row r="13" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="25">
+        <v>149</v>
+      </c>
+      <c r="E13" s="10">
         <v>140</v>
       </c>
-      <c r="E13" s="10">
+      <c r="F13" s="10">
         <v>2014</v>
       </c>
-      <c r="F13" s="10">
+      <c r="G13" s="10">
         <v>590</v>
       </c>
-      <c r="G13" s="10">
+      <c r="H13" s="10">
         <v>1496</v>
       </c>
-      <c r="H13" s="10">
+      <c r="I13" s="10">
         <v>19547</v>
       </c>
-      <c r="I13" s="10">
+      <c r="J13" s="10">
         <v>221230</v>
       </c>
-      <c r="J13" s="12">
+      <c r="K13" s="12">
         <v>5.9564599999999999</v>
       </c>
-      <c r="K13" s="10">
+      <c r="L13" s="10">
         <v>520</v>
       </c>
-      <c r="L13" s="10">
+      <c r="M13" s="10">
         <v>6247</v>
       </c>
-      <c r="M13" s="10">
+      <c r="N13" s="10">
         <v>1544</v>
       </c>
-      <c r="N13" s="10">
+      <c r="O13" s="10">
         <v>9331</v>
       </c>
-      <c r="O13" s="10">
+      <c r="P13" s="10">
         <v>857118</v>
       </c>
-      <c r="P13" s="12">
+      <c r="Q13" s="12">
         <v>43.591999999999999</v>
       </c>
-      <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="4"/>
+      <c r="U13" s="5"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="Q14" s="2"/>
+      <c r="X13" s="4"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14"/>
+      <c r="U14" s="2"/>
       <c r="V14"/>
       <c r="W14"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="Q15" s="2"/>
+      <c r="X14"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15"/>
+      <c r="U15" s="2"/>
       <c r="V15"/>
       <c r="W15"/>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="Q16" s="2"/>
+      <c r="X15"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16"/>
+      <c r="U16" s="2"/>
       <c r="V16"/>
       <c r="W16"/>
-    </row>
-    <row r="17" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q17"/>
+      <c r="X16"/>
+    </row>
+    <row r="17" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R17"/>
       <c r="S17"/>
       <c r="T17"/>
       <c r="U17"/>
       <c r="V17"/>
       <c r="W17"/>
-    </row>
-    <row r="18" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q18"/>
+      <c r="X17"/>
+    </row>
+    <row r="18" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R18"/>
       <c r="S18"/>
       <c r="T18"/>
       <c r="U18"/>
       <c r="V18"/>
       <c r="W18"/>
-    </row>
-    <row r="19" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q19"/>
+      <c r="X18"/>
+    </row>
+    <row r="19" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R19"/>
       <c r="S19"/>
       <c r="T19"/>
       <c r="U19"/>
       <c r="V19"/>
       <c r="W19"/>
-    </row>
-    <row r="20" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q20"/>
+      <c r="X19"/>
+    </row>
+    <row r="20" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R20"/>
       <c r="S20"/>
       <c r="T20"/>
       <c r="U20"/>
       <c r="V20"/>
       <c r="W20"/>
-    </row>
-    <row r="21" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q21"/>
+      <c r="X20"/>
+    </row>
+    <row r="21" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R21"/>
       <c r="S21"/>
       <c r="T21"/>
       <c r="U21"/>
       <c r="V21"/>
       <c r="W21"/>
-    </row>
-    <row r="22" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q22"/>
+      <c r="X21"/>
+    </row>
+    <row r="22" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R22"/>
       <c r="S22"/>
       <c r="T22"/>
       <c r="U22"/>
       <c r="V22"/>
       <c r="W22"/>
-    </row>
-    <row r="23" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q23"/>
+      <c r="X22"/>
+    </row>
+    <row r="23" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R23"/>
       <c r="S23"/>
       <c r="T23"/>
       <c r="U23"/>
       <c r="V23"/>
       <c r="W23"/>
-    </row>
-    <row r="24" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q24"/>
+      <c r="X23"/>
+    </row>
+    <row r="24" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R24"/>
       <c r="S24"/>
       <c r="T24"/>
       <c r="U24"/>
       <c r="V24"/>
       <c r="W24"/>
-    </row>
-    <row r="25" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q25"/>
+      <c r="X24"/>
+    </row>
+    <row r="25" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R25"/>
       <c r="S25"/>
       <c r="T25"/>
       <c r="U25"/>
       <c r="V25"/>
       <c r="W25"/>
+      <c r="X25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/experimental_results/majority_NW_latex.xlsx
+++ b/experimental_results/majority_NW_latex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\Documents\Uni\Master\Masterarbeit\tum-thesis-latex\experimental_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6B319E-EDE9-4F36-8E19-3ABA1F971EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EEA866-D76E-4665-A03D-18EF5EE2446A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9DBFB358-8B9E-49E9-956B-A52546E4BC79}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9DBFB358-8B9E-49E9-956B-A52546E4BC79}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>Benchmark</t>
   </si>
   <si>
-    <t>Ortho</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t xml:space="preserve"> h </t>
   </si>
   <si>
-    <t>MAJ DNW</t>
-  </si>
-  <si>
     <t>|N|</t>
   </si>
   <si>
@@ -141,6 +135,63 @@
   </si>
   <si>
     <t>|G|</t>
+  </si>
+  <si>
+    <t>2.42404</t>
+  </si>
+  <si>
+    <t>14.681</t>
+  </si>
+  <si>
+    <t>2.00818</t>
+  </si>
+  <si>
+    <t>22.7239</t>
+  </si>
+  <si>
+    <t>29.2383</t>
+  </si>
+  <si>
+    <t>1.11582</t>
+  </si>
+  <si>
+    <t>1.89165</t>
+  </si>
+  <si>
+    <t>5.95646</t>
+  </si>
+  <si>
+    <t>1.43515</t>
+  </si>
+  <si>
+    <t>12.9112</t>
+  </si>
+  <si>
+    <t>96.2017</t>
+  </si>
+  <si>
+    <t>9.71033</t>
+  </si>
+  <si>
+    <t>111.134</t>
+  </si>
+  <si>
+    <t>194.617</t>
+  </si>
+  <si>
+    <t>6.82338</t>
+  </si>
+  <si>
+    <t>9.73954</t>
+  </si>
+  <si>
+    <t>43.592</t>
+  </si>
+  <si>
+    <t>ortho</t>
+  </si>
+  <si>
+    <t>MGDN</t>
   </si>
 </sst>
 </file>
@@ -314,16 +365,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -348,8 +392,33 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -671,53 +740,53 @@
       <selection activeCell="B1" sqref="B1:Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1"/>
-    <col min="2" max="2" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.44140625" style="1"/>
+    <col min="19" max="19" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="17"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="10"/>
       <c r="R1"/>
       <c r="S1"/>
       <c r="T1"/>
@@ -726,54 +795,54 @@
       <c r="W1"/>
       <c r="X1"/>
     </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="L2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>4</v>
+      <c r="Q2" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="R2"/>
       <c r="S2"/>
@@ -783,54 +852,54 @@
       <c r="W2"/>
       <c r="X2"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="24">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9">
+      <c r="D3" s="21">
+        <v>10</v>
+      </c>
+      <c r="E3" s="21">
         <v>5</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="21">
         <v>84</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="21">
         <v>29</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="21">
         <v>64</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="21">
         <v>92</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="21">
         <v>709</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="9">
+      <c r="K3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="21">
         <v>26</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="21">
         <v>107</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="21">
         <v>73</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="21">
         <v>70</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="21">
         <v>1440</v>
       </c>
-      <c r="Q3" s="6" t="s">
-        <v>10</v>
+      <c r="Q3" s="22" t="s">
+        <v>9</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -840,54 +909,54 @@
       <c r="W3"/>
       <c r="X3"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="24">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="21">
         <v>10</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="21">
         <v>7</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="21">
         <v>90</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="21">
         <v>30</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="21">
         <v>72</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="21">
         <v>92</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="21">
         <v>731</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="9">
+      <c r="K4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="21">
         <v>28</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="21">
         <v>176</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="21">
         <v>87</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="21">
         <v>78</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="21">
         <v>2377</v>
       </c>
-      <c r="Q4" s="6" t="s">
-        <v>10</v>
+      <c r="Q4" s="22" t="s">
+        <v>9</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -897,54 +966,54 @@
       <c r="W4"/>
       <c r="X4"/>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="24">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="21">
         <v>40</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="21">
         <v>30</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="21">
         <v>432</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="21">
         <v>138</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="21">
         <v>318</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="21">
         <v>1205</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="21">
         <v>11838</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="9">
+      <c r="K5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="21">
         <v>132</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="21">
         <v>904</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="21">
         <v>385</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="21">
         <v>831</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="21">
         <v>34158</v>
       </c>
-      <c r="Q5" s="11">
-        <v>1.4351499999999999</v>
+      <c r="Q5" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -954,54 +1023,54 @@
       <c r="W5"/>
       <c r="X5"/>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="24">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="21">
         <v>100</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="21">
         <v>93</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="21">
         <v>1321</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="21">
         <v>390</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="21">
         <v>980</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="21">
         <v>8479</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="21">
         <v>100222</v>
       </c>
-      <c r="K6" s="11">
-        <v>2.4240400000000002</v>
-      </c>
-      <c r="L6" s="9">
+      <c r="K6" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="21">
         <v>350</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="21">
         <v>3722</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="21">
         <v>1000</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="21">
         <v>4813</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="21">
         <v>355351</v>
       </c>
-      <c r="Q6" s="11">
-        <v>12.911199999999999</v>
+      <c r="Q6" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -1011,54 +1080,54 @@
       <c r="W6"/>
       <c r="X6"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="24">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="21">
         <v>200</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="21">
         <v>190</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="21">
         <v>2668</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="21">
         <v>765</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="21">
         <v>1975</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="21">
         <v>31667</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="21">
         <v>371272</v>
       </c>
-      <c r="K7" s="11">
-        <v>14.680999999999999</v>
-      </c>
-      <c r="L7" s="9">
+      <c r="K7" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="21">
         <v>712</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="21">
         <v>8112</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="21">
         <v>1978</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="21">
         <v>16555</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="21">
         <v>1431295</v>
       </c>
-      <c r="Q7" s="11">
-        <v>96.201700000000002</v>
+      <c r="Q7" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -1068,54 +1137,54 @@
       <c r="W7"/>
       <c r="X7"/>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="24">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="21">
         <v>90</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="21">
         <v>85</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="21">
         <v>1204</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="21">
         <v>361</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="21">
         <v>890</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="21">
         <v>6803</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="21">
         <v>79105</v>
       </c>
-      <c r="K8" s="11">
-        <v>2.0081799999999999</v>
-      </c>
-      <c r="L8" s="9">
+      <c r="K8" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="21">
         <v>310</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="21">
         <v>2744</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="21">
         <v>902</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="21">
         <v>3915</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="21">
         <v>235040</v>
       </c>
-      <c r="Q8" s="11">
-        <v>9.7103300000000008</v>
+      <c r="Q8" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -1125,54 +1194,54 @@
       <c r="W8"/>
       <c r="X8"/>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="24">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="21">
         <v>277</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="21">
         <v>267</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="21">
         <v>3799</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="21">
         <v>1106</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="21">
         <v>2811</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="21">
         <v>63270</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="21">
         <v>744287</v>
       </c>
-      <c r="K9" s="11">
-        <v>22.7239</v>
-      </c>
-      <c r="L9" s="9">
+      <c r="K9" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="21">
         <v>971</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="21">
         <v>11421</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="21">
         <v>2801</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="21">
         <v>32302</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="21">
         <v>2791464</v>
       </c>
-      <c r="Q9" s="11">
-        <v>111.134</v>
+      <c r="Q9" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -1182,54 +1251,54 @@
       <c r="W9"/>
       <c r="X9"/>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="24">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="21">
         <v>340</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="21">
         <v>324</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="21">
         <v>4638</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="21">
         <v>1321</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="21">
         <v>3436</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="21">
         <v>86195</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="21">
         <v>1050366</v>
       </c>
-      <c r="K10" s="11">
-        <v>29.238299999999999</v>
-      </c>
-      <c r="L10" s="9">
+      <c r="K10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="21">
         <v>1189</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="21">
         <v>13714</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="21">
         <v>3349</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="21">
         <v>41489</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="21">
         <v>3943616</v>
       </c>
-      <c r="Q10" s="11">
-        <v>194.61699999999999</v>
+      <c r="Q10" s="22" t="s">
+        <v>46</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -1239,54 +1308,54 @@
       <c r="W10"/>
       <c r="X10"/>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="24">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="21">
         <v>72</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="21">
         <v>61</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="21">
         <v>864</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="21">
         <v>253</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="21">
         <v>643</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="21">
         <v>3907</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="21">
         <v>40424</v>
       </c>
-      <c r="K11" s="11">
-        <v>1.11582</v>
-      </c>
-      <c r="L11" s="9">
+      <c r="K11" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="21">
         <v>245</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="21">
         <v>1815</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="21">
         <v>665</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="21">
         <v>2280</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="21">
         <v>120456</v>
       </c>
-      <c r="Q11" s="11">
-        <v>6.8233800000000002</v>
+      <c r="Q11" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -1296,54 +1365,54 @@
       <c r="W11"/>
       <c r="X11"/>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="24">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="21">
         <v>88</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="21">
         <v>83</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="21">
         <v>1149</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="21">
         <v>333</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="21">
         <v>855</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="21">
         <v>6861</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="21">
         <v>74636</v>
       </c>
-      <c r="K12" s="11">
-        <v>1.8916500000000001</v>
-      </c>
-      <c r="L12" s="9">
+      <c r="K12" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="21">
         <v>306</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="21">
         <v>2706</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="21">
         <v>854</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="21">
         <v>3623</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="21">
         <v>235136</v>
       </c>
-      <c r="Q12" s="11">
-        <v>9.7395399999999999</v>
+      <c r="Q12" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -1353,54 +1422,54 @@
       <c r="W12"/>
       <c r="X12"/>
     </row>
-    <row r="13" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="25">
+    <row r="13" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="24">
         <v>149</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="24">
         <v>140</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="24">
         <v>2014</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="24">
         <v>590</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="24">
         <v>1496</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="24">
         <v>19547</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="24">
         <v>221230</v>
       </c>
-      <c r="K13" s="12">
-        <v>5.9564599999999999</v>
-      </c>
-      <c r="L13" s="10">
+      <c r="K13" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="24">
         <v>520</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="24">
         <v>6247</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="24">
         <v>1544</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="24">
         <v>9331</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="24">
         <v>857118</v>
       </c>
-      <c r="Q13" s="12">
-        <v>43.591999999999999</v>
+      <c r="Q13" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
@@ -1410,7 +1479,7 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
@@ -1419,7 +1488,7 @@
       <c r="W14"/>
       <c r="X14"/>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
@@ -1428,7 +1497,7 @@
       <c r="W15"/>
       <c r="X15"/>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
@@ -1437,7 +1506,7 @@
       <c r="W16"/>
       <c r="X16"/>
     </row>
-    <row r="17" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R17"/>
       <c r="S17"/>
       <c r="T17"/>
@@ -1446,7 +1515,7 @@
       <c r="W17"/>
       <c r="X17"/>
     </row>
-    <row r="18" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R18"/>
       <c r="S18"/>
       <c r="T18"/>
@@ -1455,7 +1524,7 @@
       <c r="W18"/>
       <c r="X18"/>
     </row>
-    <row r="19" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R19"/>
       <c r="S19"/>
       <c r="T19"/>
@@ -1464,7 +1533,7 @@
       <c r="W19"/>
       <c r="X19"/>
     </row>
-    <row r="20" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R20"/>
       <c r="S20"/>
       <c r="T20"/>
@@ -1473,7 +1542,7 @@
       <c r="W20"/>
       <c r="X20"/>
     </row>
-    <row r="21" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R21"/>
       <c r="S21"/>
       <c r="T21"/>
@@ -1482,7 +1551,7 @@
       <c r="W21"/>
       <c r="X21"/>
     </row>
-    <row r="22" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R22"/>
       <c r="S22"/>
       <c r="T22"/>
@@ -1491,7 +1560,7 @@
       <c r="W22"/>
       <c r="X22"/>
     </row>
-    <row r="23" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R23"/>
       <c r="S23"/>
       <c r="T23"/>
@@ -1500,7 +1569,7 @@
       <c r="W23"/>
       <c r="X23"/>
     </row>
-    <row r="24" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R24"/>
       <c r="S24"/>
       <c r="T24"/>
@@ -1509,7 +1578,7 @@
       <c r="W24"/>
       <c r="X24"/>
     </row>
-    <row r="25" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R25"/>
       <c r="S25"/>
       <c r="T25"/>
